--- a/Code/Results/Cases/Case_2_125/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_125/res_line/loading_percent.xlsx
@@ -421,28 +421,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>24.6235101942754</v>
+        <v>16.13996428727678</v>
       </c>
       <c r="C2">
-        <v>13.69216936163989</v>
+        <v>11.68458322830679</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>6.618949823632943</v>
+        <v>11.81306810524511</v>
       </c>
       <c r="F2">
-        <v>30.27884324296193</v>
+        <v>16.86991607391245</v>
       </c>
       <c r="G2">
-        <v>12.72725923620418</v>
+        <v>20.08359348480916</v>
       </c>
       <c r="H2">
-        <v>6.65955645798155</v>
+        <v>12.25921542904854</v>
       </c>
       <c r="I2">
-        <v>9.792197167559154</v>
+        <v>18.62252655626982</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -451,7 +451,7 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>7.372063999299852</v>
+        <v>9.644430804563072</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>9.688525227843028</v>
+        <v>17.47800380851698</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,28 +468,28 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>23.0140918470993</v>
+        <v>15.36481217045498</v>
       </c>
       <c r="C3">
-        <v>13.1248042562323</v>
+        <v>11.47277406483596</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>6.73304560714897</v>
+        <v>11.87802688579383</v>
       </c>
       <c r="F3">
-        <v>28.16301984326747</v>
+        <v>15.89584955866815</v>
       </c>
       <c r="G3">
-        <v>12.77007546954191</v>
+        <v>20.28839276506119</v>
       </c>
       <c r="H3">
-        <v>6.811547018332689</v>
+        <v>12.32947100404872</v>
       </c>
       <c r="I3">
-        <v>10.24046359108816</v>
+        <v>18.78422403410015</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -498,7 +498,7 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>7.091206255728072</v>
+        <v>9.605792483442787</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>9.908705091511266</v>
+        <v>17.61004981518622</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,28 +515,28 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>21.96673316858931</v>
+        <v>14.86746506304216</v>
       </c>
       <c r="C4">
-        <v>12.76495478935203</v>
+        <v>11.34115157046004</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>6.809108887366612</v>
+        <v>11.92048125042978</v>
       </c>
       <c r="F4">
-        <v>26.79314218379242</v>
+        <v>15.26997757108489</v>
       </c>
       <c r="G4">
-        <v>12.84032015332004</v>
+        <v>20.42508974919763</v>
       </c>
       <c r="H4">
-        <v>6.910713425470028</v>
+        <v>12.37515964230774</v>
       </c>
       <c r="I4">
-        <v>10.52401689234504</v>
+        <v>18.88854454662348</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -545,7 +545,7 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>6.916016553596063</v>
+        <v>9.583489560978663</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>10.05960778607219</v>
+        <v>17.69641881102036</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,28 +562,28 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>21.52500399998325</v>
+        <v>14.65961587828911</v>
       </c>
       <c r="C5">
-        <v>12.61559581205028</v>
+        <v>11.28717847264898</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>6.841560103964049</v>
+        <v>11.93842805992277</v>
       </c>
       <c r="F5">
-        <v>26.21694803853475</v>
+        <v>15.008197319934</v>
       </c>
       <c r="G5">
-        <v>12.87925262996329</v>
+        <v>20.4835241531485</v>
       </c>
       <c r="H5">
-        <v>6.95253767196203</v>
+        <v>12.39442016633994</v>
       </c>
       <c r="I5">
-        <v>10.64167368750008</v>
+        <v>18.93232602511854</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -592,7 +592,7 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>6.844038284864502</v>
+        <v>9.574764799672472</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>10.12479447381727</v>
+        <v>17.73294344951614</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,28 +609,28 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>21.45075286588733</v>
+        <v>14.62479672333347</v>
       </c>
       <c r="C6">
-        <v>12.59063619341652</v>
+        <v>11.27819775765636</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>6.847034917962219</v>
+        <v>11.94144715630453</v>
       </c>
       <c r="F6">
-        <v>26.1201820470107</v>
+        <v>14.96433081551589</v>
       </c>
       <c r="G6">
-        <v>12.88631734161207</v>
+        <v>20.49339128735222</v>
       </c>
       <c r="H6">
-        <v>6.959566382700495</v>
+        <v>12.39765715282187</v>
       </c>
       <c r="I6">
-        <v>10.66133824710783</v>
+        <v>18.93967270909193</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -639,7 +639,7 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>6.832054091348022</v>
+        <v>9.57333821813619</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>10.13583458207834</v>
+        <v>17.73908851829904</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,28 +656,28 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>21.96083632443932</v>
+        <v>14.86468259826431</v>
       </c>
       <c r="C7">
-        <v>12.76295124184506</v>
+        <v>11.3404249508783</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>6.809540716075258</v>
+        <v>11.92072067018515</v>
       </c>
       <c r="F7">
-        <v>26.78544435617556</v>
+        <v>15.26647399323133</v>
       </c>
       <c r="G7">
-        <v>12.84080449096672</v>
+        <v>20.42586679678517</v>
       </c>
       <c r="H7">
-        <v>6.911271829820255</v>
+        <v>12.37541679628318</v>
       </c>
       <c r="I7">
-        <v>10.52559510103964</v>
+        <v>18.88912985232844</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -686,7 +686,7 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>6.915048063311251</v>
+        <v>9.583370414245492</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>10.06047228993528</v>
+        <v>17.69690601856315</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,28 +703,28 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>24.08083442348462</v>
+        <v>15.87724633239141</v>
       </c>
       <c r="C8">
-        <v>13.49902072946788</v>
+        <v>11.61191236064897</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>6.65700805362172</v>
+        <v>11.83493273635117</v>
       </c>
       <c r="F8">
-        <v>29.56389055882486</v>
+        <v>16.5399640634477</v>
       </c>
       <c r="G8">
-        <v>12.73246591229649</v>
+        <v>20.15192116252763</v>
       </c>
       <c r="H8">
-        <v>6.710714023320113</v>
+        <v>12.28291027241846</v>
       </c>
       <c r="I8">
-        <v>9.945041711685683</v>
+        <v>18.67723626792698</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -733,7 +733,7 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>7.275851491429053</v>
+        <v>9.630817362275588</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>9.761019966311176</v>
+        <v>17.5224335259444</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,28 +750,28 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>27.7710605246086</v>
+        <v>17.68566979439533</v>
       </c>
       <c r="C9">
-        <v>14.8449884131609</v>
+        <v>12.12933556060565</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>6.408310217997877</v>
+        <v>11.68708033432365</v>
       </c>
       <c r="F9">
-        <v>34.4587799414611</v>
+        <v>19.00274580682531</v>
       </c>
       <c r="G9">
-        <v>12.89866695173106</v>
+        <v>19.70268456699944</v>
       </c>
       <c r="H9">
-        <v>6.366689259282087</v>
+        <v>12.12172889480456</v>
       </c>
       <c r="I9">
-        <v>8.872080837255936</v>
+        <v>18.30153380138287</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -780,7 +780,7 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>7.957682299616489</v>
+        <v>9.734835036765702</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>9.311235191134793</v>
+        <v>17.2223858832273</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,28 +797,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>30.20133825559352</v>
+        <v>18.89828374894878</v>
       </c>
       <c r="C10">
-        <v>15.76746179324197</v>
+        <v>12.49717598148438</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>6.260491141962271</v>
+        <v>11.59086245490442</v>
       </c>
       <c r="F10">
-        <v>37.72874519847217</v>
+        <v>20.67494806633232</v>
       </c>
       <c r="G10">
-        <v>13.28507896671804</v>
+        <v>19.42777593170594</v>
       </c>
       <c r="H10">
-        <v>6.148626374370649</v>
+        <v>12.01560868081969</v>
       </c>
       <c r="I10">
-        <v>8.123570979211921</v>
+        <v>18.0495673662913</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -827,7 +827,7 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>8.438443369788526</v>
+        <v>9.817519995809217</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>9.083881560171205</v>
+        <v>17.02774448240386</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,28 +844,28 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>31.24686276566349</v>
+        <v>19.42350495588</v>
       </c>
       <c r="C11">
-        <v>16.17159917563994</v>
+        <v>12.6612179016985</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>6.201843499798454</v>
+        <v>11.54978275766214</v>
       </c>
       <c r="F11">
-        <v>39.14805722232856</v>
+        <v>21.3917225636224</v>
       </c>
       <c r="G11">
-        <v>13.52287260144237</v>
+        <v>19.31501967060603</v>
       </c>
       <c r="H11">
-        <v>6.058190828596314</v>
+        <v>11.96999709050245</v>
       </c>
       <c r="I11">
-        <v>7.791912245123382</v>
+        <v>17.94012101713592</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -874,7 +874,7 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>8.652031294547822</v>
+        <v>9.856397681700313</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>9.007481251603815</v>
+        <v>16.94483365692677</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,28 +891,28 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>31.63422453608501</v>
+        <v>19.61851695818862</v>
       </c>
       <c r="C12">
-        <v>16.32233615021183</v>
+        <v>12.72281461927013</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>6.180964728901474</v>
+        <v>11.53461377200726</v>
       </c>
       <c r="F12">
-        <v>39.67592721363786</v>
+        <v>21.65686569030329</v>
       </c>
       <c r="G12">
-        <v>13.62202732328963</v>
+        <v>19.27411865008792</v>
       </c>
       <c r="H12">
-        <v>6.025325821692734</v>
+        <v>11.95310783751096</v>
       </c>
       <c r="I12">
-        <v>7.667639093073111</v>
+        <v>17.89941730308088</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -921,7 +921,7 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>8.732127585942331</v>
+        <v>9.871292661094946</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>8.982845721630065</v>
+        <v>16.91425062838503</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,28 +938,28 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>31.55117852197738</v>
+        <v>19.57669123535358</v>
       </c>
       <c r="C13">
-        <v>16.28997558432101</v>
+        <v>12.70957265060684</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>6.185400635379069</v>
+        <v>11.53786346974628</v>
       </c>
       <c r="F13">
-        <v>39.5626640325822</v>
+        <v>21.60004134736742</v>
       </c>
       <c r="G13">
-        <v>13.60026592615697</v>
+        <v>19.28284702462385</v>
       </c>
       <c r="H13">
-        <v>6.032340380633711</v>
+        <v>11.95672821297844</v>
       </c>
       <c r="I13">
-        <v>7.694343828376991</v>
+        <v>17.90815065388278</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -968,7 +968,7 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>8.714913013781167</v>
+        <v>9.868077217940938</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>8.987953715846409</v>
+        <v>16.92080099181578</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,28 +985,28 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>31.27890227450339</v>
+        <v>19.43962683991643</v>
       </c>
       <c r="C14">
-        <v>16.1840468768371</v>
+        <v>12.66629624195243</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>6.200098577659971</v>
+        <v>11.54852703900982</v>
       </c>
       <c r="F14">
-        <v>39.19167637503948</v>
+        <v>21.4136618050453</v>
       </c>
       <c r="G14">
-        <v>13.53084698364271</v>
+        <v>19.31161853413259</v>
       </c>
       <c r="H14">
-        <v>6.05545858083685</v>
+        <v>11.968599928557</v>
       </c>
       <c r="I14">
-        <v>7.781661416288384</v>
+        <v>17.9367574585536</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1015,7 +1015,7 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>8.658636845054414</v>
+        <v>9.857619688466643</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>9.005365988125016</v>
+        <v>16.94230124806439</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,28 +1032,28 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>31.11101331333915</v>
+        <v>19.35516377871858</v>
       </c>
       <c r="C15">
-        <v>16.11886091968503</v>
+        <v>12.63971874923673</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>6.209277573465473</v>
+        <v>11.55510918724213</v>
       </c>
       <c r="F15">
-        <v>38.96319309123409</v>
+        <v>21.29868154950795</v>
       </c>
       <c r="G15">
-        <v>13.48951526799598</v>
+        <v>19.32947682794456</v>
       </c>
       <c r="H15">
-        <v>6.069802838721932</v>
+        <v>11.97592155615749</v>
       </c>
       <c r="I15">
-        <v>7.8353195844058</v>
+        <v>17.95437640074195</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1062,7 +1062,7 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>8.62406254507612</v>
+        <v>9.851236390494353</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>9.016603310554059</v>
+        <v>16.95557682589309</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,28 +1079,28 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>30.13180933562316</v>
+        <v>18.86342072027399</v>
       </c>
       <c r="C16">
-        <v>15.74073205873153</v>
+        <v>12.48638496843252</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>6.264504730516508</v>
+        <v>11.59360125684754</v>
       </c>
       <c r="F16">
-        <v>37.63463543028809</v>
+        <v>20.62722412089977</v>
       </c>
       <c r="G16">
-        <v>13.27080580900371</v>
+        <v>19.43539477398827</v>
       </c>
       <c r="H16">
-        <v>6.154722868164598</v>
+        <v>12.01864308518984</v>
       </c>
       <c r="I16">
-        <v>8.145427029045017</v>
+        <v>18.05682382224062</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1109,7 +1109,7 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>8.424377561788017</v>
+        <v>9.815003925199022</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>9.089452973555922</v>
+        <v>17.03327654057601</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,28 +1126,28 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>29.51577884986106</v>
+        <v>18.5549270894294</v>
       </c>
       <c r="C17">
-        <v>15.5047362366455</v>
+        <v>12.39144093689248</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>6.300650938782777</v>
+        <v>11.61790403580695</v>
       </c>
       <c r="F17">
-        <v>36.8022877826839</v>
+        <v>20.20408069597325</v>
       </c>
       <c r="G17">
-        <v>13.15269635518053</v>
+        <v>19.50354276521929</v>
       </c>
       <c r="H17">
-        <v>6.209144164119253</v>
+        <v>12.04553335919718</v>
       </c>
       <c r="I17">
-        <v>8.337958250812232</v>
+        <v>18.12099526489058</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1156,7 +1156,7 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>8.300529529541386</v>
+        <v>9.793093942702534</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>9.141351955195699</v>
+        <v>17.08238789991744</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,28 +1173,28 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>29.15580017453585</v>
+        <v>18.37500831345933</v>
       </c>
       <c r="C18">
-        <v>15.36754204513433</v>
+        <v>12.33652468271728</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>6.322244341784415</v>
+        <v>11.63213556456316</v>
       </c>
       <c r="F18">
-        <v>36.31710943239618</v>
+        <v>19.95656407809801</v>
       </c>
       <c r="G18">
-        <v>13.09059739094928</v>
+        <v>19.54389580224786</v>
       </c>
       <c r="H18">
-        <v>6.241262486879153</v>
+        <v>12.06125059213742</v>
       </c>
       <c r="I18">
-        <v>8.44952523361003</v>
+        <v>18.15839219149893</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1203,7 +1203,7 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>8.228816541139459</v>
+        <v>9.780611413165982</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>9.173720838128238</v>
+        <v>17.11116539236846</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,28 +1220,28 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>29.03294423376964</v>
+        <v>18.31366745426753</v>
       </c>
       <c r="C19">
-        <v>15.32084287970494</v>
+        <v>12.31787980945837</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>6.329690680810156</v>
+        <v>11.63699760145719</v>
       </c>
       <c r="F19">
-        <v>36.15172494150058</v>
+        <v>19.87204792380568</v>
       </c>
       <c r="G19">
-        <v>13.07056578586485</v>
+        <v>19.55775634812221</v>
       </c>
       <c r="H19">
-        <v>6.25227401491715</v>
+        <v>12.06661523093053</v>
       </c>
       <c r="I19">
-        <v>8.487441102977472</v>
+        <v>18.17113791424155</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1250,7 +1250,7 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>8.204455172969219</v>
+        <v>9.776405836520203</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>9.185100614246544</v>
+        <v>17.12099986853567</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,28 +1267,28 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>29.58194100582128</v>
+        <v>18.58802421522954</v>
       </c>
       <c r="C20">
-        <v>15.53000961608077</v>
+        <v>12.40158002593039</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>6.296719342697017</v>
+        <v>11.61529075596827</v>
       </c>
       <c r="F20">
-        <v>36.89155697731404</v>
+        <v>20.24955283636154</v>
       </c>
       <c r="G20">
-        <v>13.16466365197767</v>
+        <v>19.49616843629746</v>
       </c>
       <c r="H20">
-        <v>6.203265577603604</v>
+        <v>12.04264490206204</v>
       </c>
       <c r="I20">
-        <v>8.317377008047332</v>
+        <v>18.11411370152654</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1297,7 +1297,7 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>8.313763314758052</v>
+        <v>9.79541399226507</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>9.135563699326806</v>
+        <v>17.07710504010159</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,28 +1314,28 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>31.35910798689526</v>
+        <v>19.47999179119385</v>
       </c>
       <c r="C21">
-        <v>16.21522366081798</v>
+        <v>12.67902212778764</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>6.195744563451807</v>
+        <v>11.5453843857491</v>
       </c>
       <c r="F21">
-        <v>39.30090300329766</v>
+        <v>21.46857628470577</v>
       </c>
       <c r="G21">
-        <v>13.55098898972458</v>
+        <v>19.30311863752949</v>
       </c>
       <c r="H21">
-        <v>6.048629686172938</v>
+        <v>11.96510252741592</v>
       </c>
       <c r="I21">
-        <v>7.755977815624132</v>
+        <v>17.92833485183772</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1344,7 +1344,7 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>8.675188169490921</v>
+        <v>9.860686699643725</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>9.000131670155342</v>
+        <v>16.93596399432894</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,28 +1361,28 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>32.47075809616693</v>
+        <v>20.04031356757576</v>
       </c>
       <c r="C22">
-        <v>16.64961450151917</v>
+        <v>12.85728087592269</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>6.137551328446403</v>
+        <v>11.50195237751784</v>
       </c>
       <c r="F22">
-        <v>40.81974568026789</v>
+        <v>22.22866616901552</v>
       </c>
       <c r="G22">
-        <v>13.85655549193729</v>
+        <v>19.18743898319693</v>
       </c>
       <c r="H22">
-        <v>5.955682807754199</v>
+        <v>11.91665573654423</v>
       </c>
       <c r="I22">
-        <v>7.396802219753072</v>
+        <v>17.81123688194148</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1391,7 +1391,7 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>8.906809053778471</v>
+        <v>9.904349349947585</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>8.936854845576599</v>
+        <v>16.8484636344694</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,28 +1408,28 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>31.88198316516715</v>
+        <v>19.7433529829111</v>
       </c>
       <c r="C23">
-        <v>16.4190215519524</v>
+        <v>12.76243684759354</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>6.167863720536412</v>
+        <v>11.52492639202945</v>
       </c>
       <c r="F23">
-        <v>40.01414225038419</v>
+        <v>21.82633154458858</v>
       </c>
       <c r="G23">
-        <v>13.68858345234424</v>
+        <v>19.2482101430509</v>
       </c>
       <c r="H23">
-        <v>6.004503647802938</v>
+        <v>11.94230851956687</v>
       </c>
       <c r="I23">
-        <v>7.58777013894295</v>
+        <v>17.87333998615804</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1438,7 +1438,7 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>8.783622753347366</v>
+        <v>9.880956987086961</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>8.968179428081422</v>
+        <v>16.89472898010498</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,28 +1455,28 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>29.55204721176817</v>
+        <v>18.57306897741545</v>
       </c>
       <c r="C24">
-        <v>15.51858824088138</v>
+        <v>12.3969971730817</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>6.298494293646955</v>
+        <v>11.61647141136003</v>
       </c>
       <c r="F24">
-        <v>36.8512191057543</v>
+        <v>20.22900810905287</v>
       </c>
       <c r="G24">
-        <v>13.15923517576741</v>
+        <v>19.49949871610141</v>
       </c>
       <c r="H24">
-        <v>6.205920707785724</v>
+        <v>12.04394997093534</v>
       </c>
       <c r="I24">
-        <v>8.326679055611546</v>
+        <v>18.11722328644357</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1485,7 +1485,7 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>8.307781908571176</v>
+        <v>9.794364742679866</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>9.138172715763321</v>
+        <v>17.07949173074828</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,28 +1502,28 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>26.82238895308183</v>
+        <v>17.21633543071155</v>
       </c>
       <c r="C25">
-        <v>14.49209996121747</v>
+        <v>11.99129947896736</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>6.469784523875911</v>
+        <v>11.72489827842806</v>
       </c>
       <c r="F25">
-        <v>33.19272459126715</v>
+        <v>18.34778573295695</v>
       </c>
       <c r="G25">
-        <v>12.80929235083315</v>
+        <v>19.81464201656406</v>
       </c>
       <c r="H25">
-        <v>6.454040750296253</v>
+        <v>12.16317080254456</v>
       </c>
       <c r="I25">
-        <v>9.155381407560464</v>
+        <v>18.39893044632143</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1532,7 +1532,7 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>7.776487417639923</v>
+        <v>9.705563329163519</v>
       </c>
       <c r="M25">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>9.416301714596409</v>
+        <v>17.29903622442079</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_125/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_125/res_line/loading_percent.xlsx
@@ -421,28 +421,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>16.13996428727678</v>
+        <v>24.62351019427541</v>
       </c>
       <c r="C2">
-        <v>11.68458322830679</v>
+        <v>13.69216936163984</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>11.81306810524511</v>
+        <v>6.618949823632956</v>
       </c>
       <c r="F2">
-        <v>16.86991607391245</v>
+        <v>30.27884324296195</v>
       </c>
       <c r="G2">
-        <v>20.08359348480916</v>
+        <v>12.7272592362043</v>
       </c>
       <c r="H2">
-        <v>12.25921542904854</v>
+        <v>6.659556457981554</v>
       </c>
       <c r="I2">
-        <v>18.62252655626982</v>
+        <v>9.792197167559227</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -451,7 +451,7 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>9.644430804563072</v>
+        <v>7.37206399929984</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>17.47800380851698</v>
+        <v>9.688525227843073</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,28 +468,28 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>15.36481217045498</v>
+        <v>23.01409184709924</v>
       </c>
       <c r="C3">
-        <v>11.47277406483596</v>
+        <v>13.1248042562324</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>11.87802688579383</v>
+        <v>6.733045607149031</v>
       </c>
       <c r="F3">
-        <v>15.89584955866815</v>
+        <v>28.1630198432675</v>
       </c>
       <c r="G3">
-        <v>20.28839276506119</v>
+        <v>12.77007546954196</v>
       </c>
       <c r="H3">
-        <v>12.32947100404872</v>
+        <v>6.81154701833276</v>
       </c>
       <c r="I3">
-        <v>18.78422403410015</v>
+        <v>10.24046359108834</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -498,7 +498,7 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>9.605792483442787</v>
+        <v>7.091206255728057</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>17.61004981518622</v>
+        <v>9.908705091511374</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,28 +515,28 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>14.86746506304216</v>
+        <v>21.96673316858932</v>
       </c>
       <c r="C4">
-        <v>11.34115157046004</v>
+        <v>12.76495478935218</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>11.92048125042978</v>
+        <v>6.809108887366552</v>
       </c>
       <c r="F4">
-        <v>15.26997757108489</v>
+        <v>26.79314218379246</v>
       </c>
       <c r="G4">
-        <v>20.42508974919763</v>
+        <v>12.84032015331995</v>
       </c>
       <c r="H4">
-        <v>12.37515964230774</v>
+        <v>6.910713425470028</v>
       </c>
       <c r="I4">
-        <v>18.88854454662348</v>
+        <v>10.52401689234507</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -545,7 +545,7 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>9.583489560978663</v>
+        <v>6.916016553595984</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>17.69641881102036</v>
+        <v>10.05960778607216</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,28 +562,28 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>14.65961587828911</v>
+        <v>21.52500399998326</v>
       </c>
       <c r="C5">
-        <v>11.28717847264898</v>
+        <v>12.61559581205024</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>11.93842805992277</v>
+        <v>6.841560103964117</v>
       </c>
       <c r="F5">
-        <v>15.008197319934</v>
+        <v>26.2169480385347</v>
       </c>
       <c r="G5">
-        <v>20.4835241531485</v>
+        <v>12.87925262996343</v>
       </c>
       <c r="H5">
-        <v>12.39442016633994</v>
+        <v>6.952537671962038</v>
       </c>
       <c r="I5">
-        <v>18.93232602511854</v>
+        <v>10.64167368750009</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -592,7 +592,7 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>9.574764799672472</v>
+        <v>6.844038284864508</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>17.73294344951614</v>
+        <v>10.12479447381729</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,28 +609,28 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>14.62479672333347</v>
+        <v>21.45075286588736</v>
       </c>
       <c r="C6">
-        <v>11.27819775765636</v>
+        <v>12.59063619341643</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>11.94144715630453</v>
+        <v>6.847034917962103</v>
       </c>
       <c r="F6">
-        <v>14.96433081551589</v>
+        <v>26.12018204701072</v>
       </c>
       <c r="G6">
-        <v>20.49339128735222</v>
+        <v>12.88631734161216</v>
       </c>
       <c r="H6">
-        <v>12.39765715282187</v>
+        <v>6.959566382700507</v>
       </c>
       <c r="I6">
-        <v>18.93967270909193</v>
+        <v>10.66133824710783</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -639,7 +639,7 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>9.57333821813619</v>
+        <v>6.832054091348015</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>17.73908851829904</v>
+        <v>10.13583458207841</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,28 +656,28 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>14.86468259826431</v>
+        <v>21.96083632443929</v>
       </c>
       <c r="C7">
-        <v>11.3404249508783</v>
+        <v>12.76295124184497</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>11.92072067018515</v>
+        <v>6.80954071607513</v>
       </c>
       <c r="F7">
-        <v>15.26647399323133</v>
+        <v>26.78544435617556</v>
       </c>
       <c r="G7">
-        <v>20.42586679678517</v>
+        <v>12.84080449096699</v>
       </c>
       <c r="H7">
-        <v>12.37541679628318</v>
+        <v>6.911271829820325</v>
       </c>
       <c r="I7">
-        <v>18.88912985232844</v>
+        <v>10.52559510103981</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -686,7 +686,7 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>9.583370414245492</v>
+        <v>6.915048063311217</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>17.69690601856315</v>
+        <v>10.06047228993546</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,28 +703,28 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>15.87724633239141</v>
+        <v>24.08083442348464</v>
       </c>
       <c r="C8">
-        <v>11.61191236064897</v>
+        <v>13.49902072946782</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>11.83493273635117</v>
+        <v>6.657008053621791</v>
       </c>
       <c r="F8">
-        <v>16.5399640634477</v>
+        <v>29.56389055882491</v>
       </c>
       <c r="G8">
-        <v>20.15192116252763</v>
+        <v>12.73246591229674</v>
       </c>
       <c r="H8">
-        <v>12.28291027241846</v>
+        <v>6.710714023320126</v>
       </c>
       <c r="I8">
-        <v>18.67723626792698</v>
+        <v>9.945041711685821</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -733,7 +733,7 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>9.630817362275588</v>
+        <v>7.275851491429081</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>17.5224335259444</v>
+        <v>9.761019966311334</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,28 +750,28 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>17.68566979439533</v>
+        <v>27.77106052460856</v>
       </c>
       <c r="C9">
-        <v>12.12933556060565</v>
+        <v>14.84498841316109</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>11.68708033432365</v>
+        <v>6.408310217997998</v>
       </c>
       <c r="F9">
-        <v>19.00274580682531</v>
+        <v>34.45877994146107</v>
       </c>
       <c r="G9">
-        <v>19.70268456699944</v>
+        <v>12.89866695173122</v>
       </c>
       <c r="H9">
-        <v>12.12172889480456</v>
+        <v>6.366689259282087</v>
       </c>
       <c r="I9">
-        <v>18.30153380138287</v>
+        <v>8.872080837256172</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -780,7 +780,7 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>9.734835036765702</v>
+        <v>7.957682299616462</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>17.2223858832273</v>
+        <v>9.31123519113488</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,28 +797,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>18.89828374894878</v>
+        <v>30.20133825559347</v>
       </c>
       <c r="C10">
-        <v>12.49717598148438</v>
+        <v>15.76746179324205</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>11.59086245490442</v>
+        <v>6.260491141962289</v>
       </c>
       <c r="F10">
-        <v>20.67494806633232</v>
+        <v>37.72874519847221</v>
       </c>
       <c r="G10">
-        <v>19.42777593170594</v>
+        <v>13.28507896671821</v>
       </c>
       <c r="H10">
-        <v>12.01560868081969</v>
+        <v>6.148626374370543</v>
       </c>
       <c r="I10">
-        <v>18.0495673662913</v>
+        <v>8.12357097921203</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -827,7 +827,7 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>9.817519995809217</v>
+        <v>8.438443369788509</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>17.02774448240386</v>
+        <v>9.083881560171276</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,28 +844,28 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>19.42350495588</v>
+        <v>31.24686276566345</v>
       </c>
       <c r="C11">
-        <v>12.6612179016985</v>
+        <v>16.17159917564005</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>11.54978275766214</v>
+        <v>6.201843499798508</v>
       </c>
       <c r="F11">
-        <v>21.3917225636224</v>
+        <v>39.1480572223286</v>
       </c>
       <c r="G11">
-        <v>19.31501967060603</v>
+        <v>13.5228726014425</v>
       </c>
       <c r="H11">
-        <v>11.96999709050245</v>
+        <v>6.058190828596486</v>
       </c>
       <c r="I11">
-        <v>17.94012101713592</v>
+        <v>7.791912245123582</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -874,7 +874,7 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>9.856397681700313</v>
+        <v>8.652031294547831</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>16.94483365692677</v>
+        <v>9.007481251603938</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,28 +891,28 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>19.61851695818862</v>
+        <v>31.63422453608504</v>
       </c>
       <c r="C12">
-        <v>12.72281461927013</v>
+        <v>16.32233615021182</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>11.53461377200726</v>
+        <v>6.180964728901431</v>
       </c>
       <c r="F12">
-        <v>21.65686569030329</v>
+        <v>39.67592721363786</v>
       </c>
       <c r="G12">
-        <v>19.27411865008792</v>
+        <v>13.62202732328958</v>
       </c>
       <c r="H12">
-        <v>11.95310783751096</v>
+        <v>6.025325821692585</v>
       </c>
       <c r="I12">
-        <v>17.89941730308088</v>
+        <v>7.667639093072857</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -921,7 +921,7 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>9.871292661094946</v>
+        <v>8.73212758594233</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>16.91425062838503</v>
+        <v>8.98284572162992</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,28 +938,28 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>19.57669123535358</v>
+        <v>31.55117852197734</v>
       </c>
       <c r="C13">
-        <v>12.70957265060684</v>
+        <v>16.28997558432118</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>11.53786346974628</v>
+        <v>6.185400635379123</v>
       </c>
       <c r="F13">
-        <v>21.60004134736742</v>
+        <v>39.56266403258223</v>
       </c>
       <c r="G13">
-        <v>19.28284702462385</v>
+        <v>13.60026592615707</v>
       </c>
       <c r="H13">
-        <v>11.95672821297844</v>
+        <v>6.032340380633714</v>
       </c>
       <c r="I13">
-        <v>17.90815065388278</v>
+        <v>7.694343828377191</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -968,7 +968,7 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>9.868077217940938</v>
+        <v>8.714913013781143</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>16.92080099181578</v>
+        <v>8.98795371584651</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,28 +985,28 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>19.43962683991643</v>
+        <v>31.27890227450348</v>
       </c>
       <c r="C14">
-        <v>12.66629624195243</v>
+        <v>16.18404687683695</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>11.54852703900982</v>
+        <v>6.20009857765987</v>
       </c>
       <c r="F14">
-        <v>21.4136618050453</v>
+        <v>39.19167637503946</v>
       </c>
       <c r="G14">
-        <v>19.31161853413259</v>
+        <v>13.53084698364265</v>
       </c>
       <c r="H14">
-        <v>11.968599928557</v>
+        <v>6.055458580836794</v>
       </c>
       <c r="I14">
-        <v>17.9367574585536</v>
+        <v>7.781661416288217</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1015,7 +1015,7 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>9.857619688466643</v>
+        <v>8.658636845054399</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>16.94230124806439</v>
+        <v>9.005365988124957</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,28 +1032,28 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>19.35516377871858</v>
+        <v>31.11101331333913</v>
       </c>
       <c r="C15">
-        <v>12.63971874923673</v>
+        <v>16.11886091968501</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>11.55510918724213</v>
+        <v>6.209277573465436</v>
       </c>
       <c r="F15">
-        <v>21.29868154950795</v>
+        <v>38.96319309123407</v>
       </c>
       <c r="G15">
-        <v>19.32947682794456</v>
+        <v>13.48951526799611</v>
       </c>
       <c r="H15">
-        <v>11.97592155615749</v>
+        <v>6.069802838721946</v>
       </c>
       <c r="I15">
-        <v>17.95437640074195</v>
+        <v>7.835319584405812</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1062,7 +1062,7 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>9.851236390494353</v>
+        <v>8.624062545076109</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>16.95557682589309</v>
+        <v>9.016603310554093</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,28 +1079,28 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>18.86342072027399</v>
+        <v>30.1318093356232</v>
       </c>
       <c r="C16">
-        <v>12.48638496843252</v>
+        <v>15.74073205873152</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>11.59360125684754</v>
+        <v>6.264504730516513</v>
       </c>
       <c r="F16">
-        <v>20.62722412089977</v>
+        <v>37.63463543028808</v>
       </c>
       <c r="G16">
-        <v>19.43539477398827</v>
+        <v>13.27080580900375</v>
       </c>
       <c r="H16">
-        <v>12.01864308518984</v>
+        <v>6.154722868164546</v>
       </c>
       <c r="I16">
-        <v>18.05682382224062</v>
+        <v>8.145427029045019</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1109,7 +1109,7 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>9.815003925199022</v>
+        <v>8.424377561788008</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>17.03327654057601</v>
+        <v>9.089452973555927</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,28 +1126,28 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>18.5549270894294</v>
+        <v>29.5157788498611</v>
       </c>
       <c r="C17">
-        <v>12.39144093689248</v>
+        <v>15.50473623664536</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>11.61790403580695</v>
+        <v>6.300650938782715</v>
       </c>
       <c r="F17">
-        <v>20.20408069597325</v>
+        <v>36.80228778268388</v>
       </c>
       <c r="G17">
-        <v>19.50354276521929</v>
+        <v>13.15269635518054</v>
       </c>
       <c r="H17">
-        <v>12.04553335919718</v>
+        <v>6.209144164119265</v>
       </c>
       <c r="I17">
-        <v>18.12099526489058</v>
+        <v>8.337958250812168</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1156,7 +1156,7 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>9.793093942702534</v>
+        <v>8.300529529541386</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>17.08238789991744</v>
+        <v>9.141351955195711</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,28 +1173,28 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>18.37500831345933</v>
+        <v>29.15580017453591</v>
       </c>
       <c r="C18">
-        <v>12.33652468271728</v>
+        <v>15.36754204513412</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>11.63213556456316</v>
+        <v>6.322244341784359</v>
       </c>
       <c r="F18">
-        <v>19.95656407809801</v>
+        <v>36.31710943239619</v>
       </c>
       <c r="G18">
-        <v>19.54389580224786</v>
+        <v>13.09059739094925</v>
       </c>
       <c r="H18">
-        <v>12.06125059213742</v>
+        <v>6.241262486879099</v>
       </c>
       <c r="I18">
-        <v>18.15839219149893</v>
+        <v>8.449525233609865</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1203,7 +1203,7 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>9.780611413165982</v>
+        <v>8.228816541139473</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>17.11116539236846</v>
+        <v>9.173720838128183</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,28 +1220,28 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>18.31366745426753</v>
+        <v>29.0329442337696</v>
       </c>
       <c r="C19">
-        <v>12.31787980945837</v>
+        <v>15.3208428797049</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>11.63699760145719</v>
+        <v>6.329690680810226</v>
       </c>
       <c r="F19">
-        <v>19.87204792380568</v>
+        <v>36.15172494150059</v>
       </c>
       <c r="G19">
-        <v>19.55775634812221</v>
+        <v>13.07056578586511</v>
       </c>
       <c r="H19">
-        <v>12.06661523093053</v>
+        <v>6.252274014917222</v>
       </c>
       <c r="I19">
-        <v>18.17113791424155</v>
+        <v>8.487441102977716</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1250,7 +1250,7 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>9.776405836520203</v>
+        <v>8.204455172969242</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>17.12099986853567</v>
+        <v>9.185100614246727</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,28 +1267,28 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>18.58802421522954</v>
+        <v>29.58194100582122</v>
       </c>
       <c r="C20">
-        <v>12.40158002593039</v>
+        <v>15.53000961608081</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>11.61529075596827</v>
+        <v>6.296719342697194</v>
       </c>
       <c r="F20">
-        <v>20.24955283636154</v>
+        <v>36.89155697731402</v>
       </c>
       <c r="G20">
-        <v>19.49616843629746</v>
+        <v>13.1646636519778</v>
       </c>
       <c r="H20">
-        <v>12.04264490206204</v>
+        <v>6.203265577603666</v>
       </c>
       <c r="I20">
-        <v>18.11411370152654</v>
+        <v>8.317377008047474</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1297,7 +1297,7 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>9.79541399226507</v>
+        <v>8.313763314758065</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>17.07710504010159</v>
+        <v>9.135563699326903</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,28 +1314,28 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>19.47999179119385</v>
+        <v>31.35910798689521</v>
       </c>
       <c r="C21">
-        <v>12.67902212778764</v>
+        <v>16.21522366081802</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>11.5453843857491</v>
+        <v>6.195744563451826</v>
       </c>
       <c r="F21">
-        <v>21.46857628470577</v>
+        <v>39.30090300329761</v>
       </c>
       <c r="G21">
-        <v>19.30311863752949</v>
+        <v>13.55098898972474</v>
       </c>
       <c r="H21">
-        <v>11.96510252741592</v>
+        <v>6.04862968617295</v>
       </c>
       <c r="I21">
-        <v>17.92833485183772</v>
+        <v>7.75597781562418</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1344,7 +1344,7 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>9.860686699643725</v>
+        <v>8.675188169490918</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>16.93596399432894</v>
+        <v>9.000131670155394</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,28 +1361,28 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>20.04031356757576</v>
+        <v>32.47075809616694</v>
       </c>
       <c r="C22">
-        <v>12.85728087592269</v>
+        <v>16.64961450151926</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>11.50195237751784</v>
+        <v>6.137551328446457</v>
       </c>
       <c r="F22">
-        <v>22.22866616901552</v>
+        <v>40.81974568026784</v>
       </c>
       <c r="G22">
-        <v>19.18743898319693</v>
+        <v>13.85655549193732</v>
       </c>
       <c r="H22">
-        <v>11.91665573654423</v>
+        <v>5.955682807754139</v>
       </c>
       <c r="I22">
-        <v>17.81123688194148</v>
+        <v>7.396802219753043</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1391,7 +1391,7 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>9.904349349947585</v>
+        <v>8.906809053778476</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>16.8484636344694</v>
+        <v>8.936854845576523</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,28 +1408,28 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>19.7433529829111</v>
+        <v>31.88198316516718</v>
       </c>
       <c r="C23">
-        <v>12.76243684759354</v>
+        <v>16.41902155195248</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>11.52492639202945</v>
+        <v>6.16786372053635</v>
       </c>
       <c r="F23">
-        <v>21.82633154458858</v>
+        <v>40.01414225038427</v>
       </c>
       <c r="G23">
-        <v>19.2482101430509</v>
+        <v>13.68858345234426</v>
       </c>
       <c r="H23">
-        <v>11.94230851956687</v>
+        <v>6.004503647802882</v>
       </c>
       <c r="I23">
-        <v>17.87333998615804</v>
+        <v>7.587770138942922</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1438,7 +1438,7 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>9.880956987086961</v>
+        <v>8.783622753347313</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>16.89472898010498</v>
+        <v>8.968179428081374</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,28 +1455,28 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>18.57306897741545</v>
+        <v>29.55204721176816</v>
       </c>
       <c r="C24">
-        <v>12.3969971730817</v>
+        <v>15.5185882408814</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>11.61647141136003</v>
+        <v>6.298494293646961</v>
       </c>
       <c r="F24">
-        <v>20.22900810905287</v>
+        <v>36.8512191057544</v>
       </c>
       <c r="G24">
-        <v>19.49949871610141</v>
+        <v>13.15923517576754</v>
       </c>
       <c r="H24">
-        <v>12.04394997093534</v>
+        <v>6.205920707785785</v>
       </c>
       <c r="I24">
-        <v>18.11722328644357</v>
+        <v>8.32667905561175</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1485,7 +1485,7 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>9.794364742679866</v>
+        <v>8.307781908571183</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>17.07949173074828</v>
+        <v>9.138172715763453</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,28 +1502,28 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>17.21633543071155</v>
+        <v>26.82238895308179</v>
       </c>
       <c r="C25">
-        <v>11.99129947896736</v>
+        <v>14.49209996121752</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>11.72489827842806</v>
+        <v>6.469784523875961</v>
       </c>
       <c r="F25">
-        <v>18.34778573295695</v>
+        <v>33.19272459126714</v>
       </c>
       <c r="G25">
-        <v>19.81464201656406</v>
+        <v>12.80929235083324</v>
       </c>
       <c r="H25">
-        <v>12.16317080254456</v>
+        <v>6.45404075029626</v>
       </c>
       <c r="I25">
-        <v>18.39893044632143</v>
+        <v>9.155381407560563</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1532,7 +1532,7 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>9.705563329163519</v>
+        <v>7.776487417639936</v>
       </c>
       <c r="M25">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>17.29903622442079</v>
+        <v>9.416301714596486</v>
       </c>
     </row>
   </sheetData>
